--- a/decider/qualtrics/pre/COCOA1.Pre.xlsx
+++ b/decider/qualtrics/pre/COCOA1.Pre.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$CQ$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$CQ$10</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -2990,98 +2990,1487 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45922.680810185186</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45922.68797453704</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>101.56.11.110</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>618.0</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>45922.68798378472</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>R_20YHBSERG7GpSeB</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>DECLARE that I have read the Information on the processing of personal data in section A,GIVE CONSENT for Sapienza University of Rome to process my personal data for the purposes and in the manner described therein,AUTHORIZE the Sapienza University of Rome to use my images and/or voice for the creation of videos and multimedia materials, made and used exclusively for scientific research purposes.</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>MATTEO ZITARELLI</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>I have received comprehensive explanations regarding the study titled "Changing the Scenery: Eating in Different Environments".,I have reviewed the information note regarding the study in Section A, and have been given the email addresses to contact to receive a copy.,I have been given the email addresses that give me the opportunity to ask questions regarding the study.</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>of the risks and benefits that may arise from participating in this study.,that my participation is voluntary, and that I am free to withdraw at any time without having to provide explanations and without my medical care or rights being affected.</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>MATTEO ZITARELLI</t>
+        </is>
+      </c>
+      <c r="Y7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="AA7" s="2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AC7" s="2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="AD7" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="AE7" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="AF7" s="2" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="AG7" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AH7" s="2" t="inlineStr">
+        <is>
+          <t>Non-Social</t>
+        </is>
+      </c>
+      <c r="AI7" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AJ7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AK7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AL7" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AM7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AN7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AO7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AP7" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AQ7" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AR7" s="2" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AS7" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AT7" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AU7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AV7" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AW7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AX7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AY7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="AZ7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BA7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BB7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BC7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BD7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BE7" s="2" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BF7" s="2" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BG7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BH7" s="2" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BI7" s="2" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BJ7" s="2" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BK7" s="2" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BM7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BN7" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BO7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BP7" s="2" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BQ7" s="2" t="inlineStr">
+        <is>
+          <t>2 to 3 times a week</t>
+        </is>
+      </c>
+      <c r="BR7" s="2" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BS7" s="2" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BT7" s="2" t="inlineStr">
+        <is>
+          <t>4 to 5 times a week</t>
+        </is>
+      </c>
+      <c r="BU7" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BV7" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BW7" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BX7" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BY7" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BZ7" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CA7" s="2" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CB7" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CC7" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CD7" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CE7" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CF7" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CG7" s="2" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CH7" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CI7" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CJ7" s="2" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="CK7" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CL7" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CM7" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CN7" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CO7" s="2" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CP7" s="2" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="CQ7" s="2" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45922.88674768519</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45922.89534722222</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93.47.42.53</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>743.0</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>45922.89536388889</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>R_8HpKS6RmoX3GYYT</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>DECLARE that I have read the Information on the processing of personal data in section A,GIVE CONSENT for Sapienza University of Rome to process my personal data for the purposes and in the manner described therein,AUTHORIZE the Sapienza University of Rome to use my images and/or voice for the creation of videos and multimedia materials, made and used exclusively for scientific research purposes.</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>Federico Lizzi</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>I have received comprehensive explanations regarding the study titled "Changing the Scenery: Eating in Different Environments".,I have reviewed the information note regarding the study in Section A, and have been given the email addresses to contact to receive a copy.,I have been given the email addresses that give me the opportunity to ask questions regarding the study.</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>of the risks and benefits that may arise from participating in this study.,that my participation is voluntary, and that I am free to withdraw at any time without having to provide explanations and without my medical care or rights being affected.</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
+          <t>Federico Lizzi</t>
+        </is>
+      </c>
+      <c r="Y8" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="Z8" s="2" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="AA8" s="2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AC8" s="2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="AD8" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="AE8" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="AF8" s="2" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="AG8" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AJ8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AK8" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AL8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AM8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AN8" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AO8" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AP8" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AQ8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AR8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AS8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AT8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AU8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AV8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AW8" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AX8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AY8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AZ8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BA8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BB8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BC8" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BD8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BE8" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BF8" s="2" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BG8" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BH8" s="2" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BI8" s="2" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BJ8" s="2" t="inlineStr">
+        <is>
+          <t>Rarely</t>
+        </is>
+      </c>
+      <c r="BK8" s="2" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BM8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BN8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BO8" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BP8" s="2" t="inlineStr">
+        <is>
+          <t>Once a day</t>
+        </is>
+      </c>
+      <c r="BQ8" s="2" t="inlineStr">
+        <is>
+          <t>Once a day</t>
+        </is>
+      </c>
+      <c r="BR8" s="2" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BS8" s="2" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BT8" s="2" t="inlineStr">
+        <is>
+          <t>4 to 5 times a week</t>
+        </is>
+      </c>
+      <c r="BU8" s="2" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="BV8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BW8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BX8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BY8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BZ8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CA8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CB8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CC8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CD8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CE8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CF8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CG8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CH8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CI8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CJ8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CK8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CL8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CM8" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CN8" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CO8" s="2" t="inlineStr">
+        <is>
+          <t>Fairly often</t>
+        </is>
+      </c>
+      <c r="CP8" s="2" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CQ8" s="2" t="inlineStr">
+        <is>
+          <t>Fairly often</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45923.446180555555</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45923.45585648148</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>193.207.119.154</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>835.0</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>45923.45586260417</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>R_8oec3kJ1Ta0HdUC</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>44.6534</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10.9231</v>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>DECLARE that I have read the Information on the processing of personal data in section A,GIVE CONSENT for Sapienza University of Rome to process my personal data for the purposes and in the manner described therein,AUTHORIZE the Sapienza University of Rome to use my images and/or voice for the creation of videos and multimedia materials, made and used exclusively for scientific research purposes.</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elisa Ricci </t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>I have received comprehensive explanations regarding the study titled "Changing the Scenery: Eating in Different Environments".,I have reviewed the information note regarding the study in Section A, and have been given the email addresses to contact to receive a copy.,I have been given the email addresses that give me the opportunity to ask questions regarding the study.</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>of the risks and benefits that may arise from participating in this study.,that my participation is voluntary, and that I am free to withdraw at any time without having to provide explanations and without my medical care or rights being affected.</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="inlineStr">
+        <is>
+          <t>Elisa Ricci</t>
+        </is>
+      </c>
+      <c r="Y9" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Z9" s="2" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="AA9" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AB9" s="2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AC9" s="2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="AD9" s="2" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="AE9" s="2" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="AF9" s="2" t="inlineStr">
+        <is>
+          <t>italian</t>
+        </is>
+      </c>
+      <c r="AG9" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AJ9" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AK9" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AL9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AM9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AN9" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AO9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AP9" s="2" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AQ9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AR9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AS9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AT9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AU9" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AV9" s="2" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AW9" s="2" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AX9" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="AY9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="AZ9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BA9" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BB9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BC9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BD9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BE9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BF9" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BG9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BH9" s="2" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BI9" s="2" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BJ9" s="2" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BK9" s="2" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL9" s="2" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BM9" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BN9" s="2" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BO9" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BP9" s="2" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BQ9" s="2" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BR9" s="2" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BS9" s="2" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BT9" s="2" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BU9" s="2" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="BV9" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BW9" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BX9" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BY9" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BZ9" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CA9" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CB9" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CC9" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CD9" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CE9" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CF9" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CG9" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CH9" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CI9" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CJ9" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CK9" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CL9" s="2" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CM9" s="2" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CN9" s="2" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CO9" s="2" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CP9" s="2" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CQ9" s="2" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:CQ7"/>
+  <autoFilter ref="A2:CQ10"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C6" numberStoredAsText="true"/>
-    <ignoredError sqref="D1:D6" numberStoredAsText="true"/>
-    <ignoredError sqref="G1:G6" numberStoredAsText="true"/>
-    <ignoredError sqref="I1:I6" numberStoredAsText="true"/>
-    <ignoredError sqref="J1:J6" numberStoredAsText="true"/>
-    <ignoredError sqref="K1:K6" numberStoredAsText="true"/>
-    <ignoredError sqref="L1:L6" numberStoredAsText="true"/>
-    <ignoredError sqref="M1:M6" numberStoredAsText="true"/>
-    <ignoredError sqref="P1:P6" numberStoredAsText="true"/>
-    <ignoredError sqref="Q1:Q6" numberStoredAsText="true"/>
-    <ignoredError sqref="R1:R6" numberStoredAsText="true"/>
-    <ignoredError sqref="S1:S6" numberStoredAsText="true"/>
-    <ignoredError sqref="T1:T6" numberStoredAsText="true"/>
-    <ignoredError sqref="U1:U6" numberStoredAsText="true"/>
-    <ignoredError sqref="V1:V6" numberStoredAsText="true"/>
-    <ignoredError sqref="W1:W6" numberStoredAsText="true"/>
-    <ignoredError sqref="X1:X6" numberStoredAsText="true"/>
-    <ignoredError sqref="Y1:Y6" numberStoredAsText="true"/>
-    <ignoredError sqref="Z1:Z6" numberStoredAsText="true"/>
-    <ignoredError sqref="AA1:AA6" numberStoredAsText="true"/>
-    <ignoredError sqref="AB1:AB6" numberStoredAsText="true"/>
-    <ignoredError sqref="AC1:AC6" numberStoredAsText="true"/>
-    <ignoredError sqref="AD1:AD6" numberStoredAsText="true"/>
-    <ignoredError sqref="AE1:AE6" numberStoredAsText="true"/>
-    <ignoredError sqref="AF1:AF6" numberStoredAsText="true"/>
-    <ignoredError sqref="AG1:AG6" numberStoredAsText="true"/>
-    <ignoredError sqref="AH1:AH6" numberStoredAsText="true"/>
-    <ignoredError sqref="AI1:AI6" numberStoredAsText="true"/>
-    <ignoredError sqref="AJ1:AJ6" numberStoredAsText="true"/>
-    <ignoredError sqref="AK1:AK6" numberStoredAsText="true"/>
-    <ignoredError sqref="AL1:AL6" numberStoredAsText="true"/>
-    <ignoredError sqref="AM1:AM6" numberStoredAsText="true"/>
-    <ignoredError sqref="AN1:AN6" numberStoredAsText="true"/>
-    <ignoredError sqref="AO1:AO6" numberStoredAsText="true"/>
-    <ignoredError sqref="AP1:AP6" numberStoredAsText="true"/>
-    <ignoredError sqref="AQ1:AQ6" numberStoredAsText="true"/>
-    <ignoredError sqref="AR1:AR6" numberStoredAsText="true"/>
-    <ignoredError sqref="AS1:AS6" numberStoredAsText="true"/>
-    <ignoredError sqref="AT1:AT6" numberStoredAsText="true"/>
-    <ignoredError sqref="AU1:AU6" numberStoredAsText="true"/>
-    <ignoredError sqref="AV1:AV6" numberStoredAsText="true"/>
-    <ignoredError sqref="AW1:AW6" numberStoredAsText="true"/>
-    <ignoredError sqref="AX1:AX6" numberStoredAsText="true"/>
-    <ignoredError sqref="AY1:AY6" numberStoredAsText="true"/>
-    <ignoredError sqref="AZ1:AZ6" numberStoredAsText="true"/>
-    <ignoredError sqref="BA1:BA6" numberStoredAsText="true"/>
-    <ignoredError sqref="BB1:BB6" numberStoredAsText="true"/>
-    <ignoredError sqref="BC1:BC6" numberStoredAsText="true"/>
-    <ignoredError sqref="BD1:BD6" numberStoredAsText="true"/>
-    <ignoredError sqref="BE1:BE6" numberStoredAsText="true"/>
-    <ignoredError sqref="BF1:BF6" numberStoredAsText="true"/>
-    <ignoredError sqref="BG1:BG6" numberStoredAsText="true"/>
-    <ignoredError sqref="BH1:BH6" numberStoredAsText="true"/>
-    <ignoredError sqref="BI1:BI6" numberStoredAsText="true"/>
-    <ignoredError sqref="BJ1:BJ6" numberStoredAsText="true"/>
-    <ignoredError sqref="BK1:BK6" numberStoredAsText="true"/>
-    <ignoredError sqref="BL1:BL6" numberStoredAsText="true"/>
-    <ignoredError sqref="BM1:BM6" numberStoredAsText="true"/>
-    <ignoredError sqref="BN1:BN6" numberStoredAsText="true"/>
-    <ignoredError sqref="BO1:BO6" numberStoredAsText="true"/>
-    <ignoredError sqref="BP1:BP6" numberStoredAsText="true"/>
-    <ignoredError sqref="BQ1:BQ6" numberStoredAsText="true"/>
-    <ignoredError sqref="BR1:BR6" numberStoredAsText="true"/>
-    <ignoredError sqref="BS1:BS6" numberStoredAsText="true"/>
-    <ignoredError sqref="BT1:BT6" numberStoredAsText="true"/>
-    <ignoredError sqref="BU1:BU6" numberStoredAsText="true"/>
-    <ignoredError sqref="BV1:BV6" numberStoredAsText="true"/>
-    <ignoredError sqref="BW1:BW6" numberStoredAsText="true"/>
-    <ignoredError sqref="BX1:BX6" numberStoredAsText="true"/>
-    <ignoredError sqref="BY1:BY6" numberStoredAsText="true"/>
-    <ignoredError sqref="BZ1:BZ6" numberStoredAsText="true"/>
-    <ignoredError sqref="CA1:CA6" numberStoredAsText="true"/>
-    <ignoredError sqref="CB1:CB6" numberStoredAsText="true"/>
-    <ignoredError sqref="CC1:CC6" numberStoredAsText="true"/>
-    <ignoredError sqref="CD1:CD6" numberStoredAsText="true"/>
-    <ignoredError sqref="CE1:CE6" numberStoredAsText="true"/>
-    <ignoredError sqref="CF1:CF6" numberStoredAsText="true"/>
-    <ignoredError sqref="CG1:CG6" numberStoredAsText="true"/>
-    <ignoredError sqref="CH1:CH6" numberStoredAsText="true"/>
-    <ignoredError sqref="CI1:CI6" numberStoredAsText="true"/>
-    <ignoredError sqref="CJ1:CJ6" numberStoredAsText="true"/>
-    <ignoredError sqref="CK1:CK6" numberStoredAsText="true"/>
-    <ignoredError sqref="CL1:CL6" numberStoredAsText="true"/>
-    <ignoredError sqref="CM1:CM6" numberStoredAsText="true"/>
-    <ignoredError sqref="CN1:CN6" numberStoredAsText="true"/>
-    <ignoredError sqref="CO1:CO6" numberStoredAsText="true"/>
-    <ignoredError sqref="CP1:CP6" numberStoredAsText="true"/>
-    <ignoredError sqref="CQ1:CQ6" numberStoredAsText="true"/>
+    <ignoredError sqref="C1:C9" numberStoredAsText="true"/>
+    <ignoredError sqref="D1:D9" numberStoredAsText="true"/>
+    <ignoredError sqref="G1:G9" numberStoredAsText="true"/>
+    <ignoredError sqref="I1:I9" numberStoredAsText="true"/>
+    <ignoredError sqref="J1:J9" numberStoredAsText="true"/>
+    <ignoredError sqref="K1:K9" numberStoredAsText="true"/>
+    <ignoredError sqref="L1:L9" numberStoredAsText="true"/>
+    <ignoredError sqref="M1:M9" numberStoredAsText="true"/>
+    <ignoredError sqref="P1:P9" numberStoredAsText="true"/>
+    <ignoredError sqref="Q1:Q9" numberStoredAsText="true"/>
+    <ignoredError sqref="R1:R9" numberStoredAsText="true"/>
+    <ignoredError sqref="S1:S9" numberStoredAsText="true"/>
+    <ignoredError sqref="T1:T9" numberStoredAsText="true"/>
+    <ignoredError sqref="U1:U9" numberStoredAsText="true"/>
+    <ignoredError sqref="V1:V9" numberStoredAsText="true"/>
+    <ignoredError sqref="W1:W9" numberStoredAsText="true"/>
+    <ignoredError sqref="X1:X9" numberStoredAsText="true"/>
+    <ignoredError sqref="Y1:Y9" numberStoredAsText="true"/>
+    <ignoredError sqref="Z1:Z9" numberStoredAsText="true"/>
+    <ignoredError sqref="AA1:AA9" numberStoredAsText="true"/>
+    <ignoredError sqref="AB1:AB9" numberStoredAsText="true"/>
+    <ignoredError sqref="AC1:AC9" numberStoredAsText="true"/>
+    <ignoredError sqref="AD1:AD9" numberStoredAsText="true"/>
+    <ignoredError sqref="AE1:AE9" numberStoredAsText="true"/>
+    <ignoredError sqref="AF1:AF9" numberStoredAsText="true"/>
+    <ignoredError sqref="AG1:AG9" numberStoredAsText="true"/>
+    <ignoredError sqref="AH1:AH9" numberStoredAsText="true"/>
+    <ignoredError sqref="AI1:AI9" numberStoredAsText="true"/>
+    <ignoredError sqref="AJ1:AJ9" numberStoredAsText="true"/>
+    <ignoredError sqref="AK1:AK9" numberStoredAsText="true"/>
+    <ignoredError sqref="AL1:AL9" numberStoredAsText="true"/>
+    <ignoredError sqref="AM1:AM9" numberStoredAsText="true"/>
+    <ignoredError sqref="AN1:AN9" numberStoredAsText="true"/>
+    <ignoredError sqref="AO1:AO9" numberStoredAsText="true"/>
+    <ignoredError sqref="AP1:AP9" numberStoredAsText="true"/>
+    <ignoredError sqref="AQ1:AQ9" numberStoredAsText="true"/>
+    <ignoredError sqref="AR1:AR9" numberStoredAsText="true"/>
+    <ignoredError sqref="AS1:AS9" numberStoredAsText="true"/>
+    <ignoredError sqref="AT1:AT9" numberStoredAsText="true"/>
+    <ignoredError sqref="AU1:AU9" numberStoredAsText="true"/>
+    <ignoredError sqref="AV1:AV9" numberStoredAsText="true"/>
+    <ignoredError sqref="AW1:AW9" numberStoredAsText="true"/>
+    <ignoredError sqref="AX1:AX9" numberStoredAsText="true"/>
+    <ignoredError sqref="AY1:AY9" numberStoredAsText="true"/>
+    <ignoredError sqref="AZ1:AZ9" numberStoredAsText="true"/>
+    <ignoredError sqref="BA1:BA9" numberStoredAsText="true"/>
+    <ignoredError sqref="BB1:BB9" numberStoredAsText="true"/>
+    <ignoredError sqref="BC1:BC9" numberStoredAsText="true"/>
+    <ignoredError sqref="BD1:BD9" numberStoredAsText="true"/>
+    <ignoredError sqref="BE1:BE9" numberStoredAsText="true"/>
+    <ignoredError sqref="BF1:BF9" numberStoredAsText="true"/>
+    <ignoredError sqref="BG1:BG9" numberStoredAsText="true"/>
+    <ignoredError sqref="BH1:BH9" numberStoredAsText="true"/>
+    <ignoredError sqref="BI1:BI9" numberStoredAsText="true"/>
+    <ignoredError sqref="BJ1:BJ9" numberStoredAsText="true"/>
+    <ignoredError sqref="BK1:BK9" numberStoredAsText="true"/>
+    <ignoredError sqref="BL1:BL9" numberStoredAsText="true"/>
+    <ignoredError sqref="BM1:BM9" numberStoredAsText="true"/>
+    <ignoredError sqref="BN1:BN9" numberStoredAsText="true"/>
+    <ignoredError sqref="BO1:BO9" numberStoredAsText="true"/>
+    <ignoredError sqref="BP1:BP9" numberStoredAsText="true"/>
+    <ignoredError sqref="BQ1:BQ9" numberStoredAsText="true"/>
+    <ignoredError sqref="BR1:BR9" numberStoredAsText="true"/>
+    <ignoredError sqref="BS1:BS9" numberStoredAsText="true"/>
+    <ignoredError sqref="BT1:BT9" numberStoredAsText="true"/>
+    <ignoredError sqref="BU1:BU9" numberStoredAsText="true"/>
+    <ignoredError sqref="BV1:BV9" numberStoredAsText="true"/>
+    <ignoredError sqref="BW1:BW9" numberStoredAsText="true"/>
+    <ignoredError sqref="BX1:BX9" numberStoredAsText="true"/>
+    <ignoredError sqref="BY1:BY9" numberStoredAsText="true"/>
+    <ignoredError sqref="BZ1:BZ9" numberStoredAsText="true"/>
+    <ignoredError sqref="CA1:CA9" numberStoredAsText="true"/>
+    <ignoredError sqref="CB1:CB9" numberStoredAsText="true"/>
+    <ignoredError sqref="CC1:CC9" numberStoredAsText="true"/>
+    <ignoredError sqref="CD1:CD9" numberStoredAsText="true"/>
+    <ignoredError sqref="CE1:CE9" numberStoredAsText="true"/>
+    <ignoredError sqref="CF1:CF9" numberStoredAsText="true"/>
+    <ignoredError sqref="CG1:CG9" numberStoredAsText="true"/>
+    <ignoredError sqref="CH1:CH9" numberStoredAsText="true"/>
+    <ignoredError sqref="CI1:CI9" numberStoredAsText="true"/>
+    <ignoredError sqref="CJ1:CJ9" numberStoredAsText="true"/>
+    <ignoredError sqref="CK1:CK9" numberStoredAsText="true"/>
+    <ignoredError sqref="CL1:CL9" numberStoredAsText="true"/>
+    <ignoredError sqref="CM1:CM9" numberStoredAsText="true"/>
+    <ignoredError sqref="CN1:CN9" numberStoredAsText="true"/>
+    <ignoredError sqref="CO1:CO9" numberStoredAsText="true"/>
+    <ignoredError sqref="CP1:CP9" numberStoredAsText="true"/>
+    <ignoredError sqref="CQ1:CQ9" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
